--- a/sprints-documents/sprint5/Sprint 5 Backlog.xlsx
+++ b/sprints-documents/sprint5/Sprint 5 Backlog.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
   <si>
     <t>Unique ID</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Yahia Badr</t>
-  </si>
-  <si>
-    <t>As an admin i should be able to reset my password in case i lose it.</t>
   </si>
   <si>
     <t>As a reviewer i should be able to reset my password in case i lose it.</t>
@@ -333,14 +330,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF434343"/>
+        <bgColor rgb="FF434343"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFB7B7B7"/>
         <bgColor rgb="FFB7B7B7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF434343"/>
-        <bgColor rgb="FF434343"/>
       </patternFill>
     </fill>
     <fill>
@@ -362,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -429,9 +426,6 @@
     <xf borderId="0" fillId="16" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -444,7 +438,7 @@
     <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="18" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="17" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -456,7 +450,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -480,15 +474,15 @@
     <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="19" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -498,7 +492,7 @@
     <xf borderId="0" fillId="20" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="17" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="18" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -517,6 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -585,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="J2" s="9">
-        <v>11.0</v>
+        <v>8.0</v>
       </c>
       <c r="K2" s="9">
         <v>4.0</v>
@@ -597,7 +592,7 @@
         <v>15</v>
       </c>
       <c r="J3" s="9">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="K3" s="9">
         <v>4.0</v>
@@ -626,7 +621,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="9">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="K4" s="9">
         <v>4.0</v>
@@ -696,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="9">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="K7" s="9">
         <v>3.0</v>
@@ -802,20 +797,22 @@
       <c r="F12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="20">
-        <v>9.0</v>
-      </c>
-      <c r="K12" s="20">
-        <v>4.0</v>
+      <c r="I12" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="24">
+        <f t="shared" ref="J12:K12" si="1">AVERAGE(J2:J11)</f>
+        <v>6.8</v>
+      </c>
+      <c r="K12" s="24">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3"/>
-      <c r="B13" s="23" t="s">
-        <v>28</v>
+      <c r="B13" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="3">
         <v>1.0</v>
@@ -829,58 +826,52 @@
       <c r="F13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="25">
-        <f t="shared" ref="J13:K13" si="1">AVERAGE(J2:J12)</f>
-        <v>6.545454545</v>
-      </c>
-      <c r="K13" s="25">
-        <f t="shared" si="1"/>
-        <v>3.545454545</v>
+      <c r="I13" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="27">
+        <f t="shared" ref="J13:K13" si="2">SUM(J2:J11)</f>
+        <v>68</v>
+      </c>
+      <c r="K13" s="27">
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="27" t="s">
+      <c r="B14" s="28"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3">
+        <v>6.0</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="28">
-        <f t="shared" ref="J14:K14" si="2">SUM(J2:J12)</f>
-        <v>72</v>
-      </c>
-      <c r="K14" s="28">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="29"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
+      <c r="C15" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
     </row>
     <row r="16">
       <c r="A16" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="B16" s="31" t="s">
+        <v>7.0</v>
+      </c>
+      <c r="B16" s="32" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="3">
@@ -895,15 +886,15 @@
       <c r="F16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="32"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17">
       <c r="A17" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="B17" s="33" t="s">
+        <v>8.0</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="3">
@@ -918,50 +909,50 @@
       <c r="F17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18">
-      <c r="A18" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="24"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3">
+        <v>9.0</v>
+      </c>
+      <c r="B19" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="34"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="25"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
+      <c r="C19" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="33"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="B20" s="31" t="s">
+        <v>10.0</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="35" t="s">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="34" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="17" t="s">
@@ -970,21 +961,21 @@
       <c r="F20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="34"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
     </row>
     <row r="21">
-      <c r="A21" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="B21" s="33" t="s">
+      <c r="A21" s="35">
+        <v>11.0</v>
+      </c>
+      <c r="B21" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D21" s="35" t="s">
+      <c r="C21" s="35">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="34" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="17" t="s">
@@ -993,48 +984,48 @@
       <c r="F21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="34"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="36">
-        <v>11.0</v>
-      </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="24"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="17" t="s">
+      <c r="C23" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="25"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
+      <c r="E23" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
     </row>
     <row r="24">
       <c r="A24" s="3">
-        <v>12.0</v>
-      </c>
-      <c r="B24" s="37" t="s">
+        <v>13.0</v>
+      </c>
+      <c r="B24" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>22</v>
@@ -1045,48 +1036,48 @@
       <c r="F24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="34"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25">
-      <c r="A25" s="3">
-        <v>13.0</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B25" s="24"/>
       <c r="I25" s="15"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
     <row r="26">
-      <c r="B26" s="25"/>
+      <c r="A26" s="3">
+        <v>14.0</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="I26" s="15"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
     </row>
     <row r="27">
       <c r="A27" s="3">
-        <v>14.0</v>
-      </c>
-      <c r="B27" s="37" t="s">
+        <v>15.0</v>
+      </c>
+      <c r="B27" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="3">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>18</v>
@@ -1102,43 +1093,43 @@
       <c r="K27" s="9"/>
     </row>
     <row r="28">
-      <c r="A28" s="3">
-        <v>15.0</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="B28" s="28"/>
       <c r="I28" s="15"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29">
-      <c r="B29" s="29"/>
+      <c r="A29" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="I29" s="15"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30">
       <c r="A30" s="3">
-        <v>16.0</v>
-      </c>
-      <c r="B30" s="37" t="s">
+        <v>17.0</v>
+      </c>
+      <c r="B30" s="32" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>13</v>
@@ -1154,39 +1145,39 @@
       <c r="K30" s="9"/>
     </row>
     <row r="31">
-      <c r="A31" s="3">
-        <v>17.0</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B31" s="28"/>
       <c r="I31" s="15"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
     </row>
     <row r="32">
-      <c r="B32" s="29"/>
+      <c r="A32" s="3">
+        <v>18.0</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="I32" s="15"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>18.0</v>
-      </c>
-      <c r="B33" s="37" t="s">
+        <v>19.0</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="3">
@@ -1206,193 +1197,191 @@
       <c r="K33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="3">
-        <v>19.0</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="B34" s="28"/>
       <c r="I34" s="15"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
     </row>
     <row r="35">
-      <c r="B35" s="29"/>
+      <c r="A35" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="I35" s="15"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36">
-      <c r="A36" s="3">
-        <v>20.0</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="15"/>
+      <c r="B36" s="28"/>
+      <c r="I36" s="31"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37">
-      <c r="B37" s="29"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="A37" s="3">
+        <v>21.0</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="33"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
     </row>
     <row r="38">
-      <c r="A38" s="3">
-        <v>21.0</v>
-      </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="28"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3">
+        <v>22.0</v>
+      </c>
+      <c r="B39" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="21" t="s">
+      <c r="C39" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="28"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3">
+        <v>23.0</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="34"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="29"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="3">
-        <v>22.0</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="29"/>
+      <c r="E41" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="42"/>
     </row>
     <row r="42">
-      <c r="A42" s="3">
-        <v>23.0</v>
-      </c>
-      <c r="B42" s="16" t="s">
+      <c r="A42" s="35">
+        <v>24.0</v>
+      </c>
+      <c r="B42" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="3">
-        <v>2.0</v>
+      <c r="C42" s="35">
+        <v>1.0</v>
       </c>
       <c r="D42" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G42" s="43"/>
+      <c r="G42" s="42"/>
     </row>
     <row r="43">
-      <c r="A43" s="36">
-        <v>24.0</v>
-      </c>
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3">
+        <v>25.0</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="D43" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="43"/>
-    </row>
-    <row r="44">
-      <c r="B44" s="3"/>
+      <c r="C44" s="3">
+        <v>5.0</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="42"/>
     </row>
     <row r="45">
-      <c r="A45" s="3">
-        <v>25.0</v>
-      </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3">
+        <v>26.0</v>
+      </c>
+      <c r="B46" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="10" t="s">
+      <c r="C46" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G45" s="43"/>
-    </row>
-    <row r="46">
-      <c r="B46" s="3"/>
+      <c r="E46" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="31"/>
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>26.0</v>
-      </c>
-      <c r="B47" s="44" t="s">
+        <v>27.0</v>
+      </c>
+      <c r="B47" s="43" t="s">
         <v>52</v>
       </c>
       <c r="C47" s="3">
         <v>5.0</v>
       </c>
-      <c r="D47" s="10" t="s">
-        <v>15</v>
+      <c r="D47" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>20</v>
@@ -1400,17 +1389,17 @@
       <c r="F47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="32"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>27.0</v>
-      </c>
-      <c r="B48" s="44" t="s">
+        <v>28.0</v>
+      </c>
+      <c r="B48" s="43" t="s">
         <v>53</v>
       </c>
       <c r="C48" s="3">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>12</v>
@@ -1421,57 +1410,39 @@
       <c r="F48" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="32"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="3">
-        <v>28.0</v>
-      </c>
-      <c r="B49" s="44" t="s">
+      <c r="G48" s="31"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3">
+        <v>29.0</v>
+      </c>
+      <c r="B50" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="8" t="s">
+      <c r="C50" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="32"/>
+      <c r="E50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" s="15"/>
     </row>
     <row r="51">
-      <c r="A51" s="3">
-        <v>29.0</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" s="15"/>
-    </row>
-    <row r="52">
-      <c r="C52">
-        <f>SUM(C1:C51)</f>
-        <v>72</v>
+      <c r="C51">
+        <f>SUM(C1:C50)</f>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>